--- a/M_Diagrama_MuriloMilani_Físico.xlsx
+++ b/M_Diagrama_MuriloMilani_Físico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44688951876\Desktop\Segundo Termo\Murilo Milani\2s2019-sprint-1-bd-Opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B433BBF-4D52-4193-B170-AA5BF60AA05B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89620488-880A-4658-80E5-C669E39A6568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{8235279C-C747-45FB-B873-E738A8FA829D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{EE77DB30-BFC5-49A6-97B6-F91DEBFF54BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,208 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+  <si>
+    <t>OPFLIX</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>IdCategoria</t>
+  </si>
+  <si>
+    <t>NomeCategoria</t>
+  </si>
+  <si>
+    <t>Ação</t>
+  </si>
+  <si>
+    <t>Aventura</t>
+  </si>
+  <si>
+    <t>Comédia</t>
+  </si>
+  <si>
+    <t>Ficção Cientifica</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>Policial</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>IdUsuario</t>
+  </si>
+  <si>
+    <t>NomeUsuario</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Senha</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>IdPermissao</t>
+  </si>
+  <si>
+    <t>DataDeCadastro</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>erik@email.com</t>
+  </si>
+  <si>
+    <t>Cassiana</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Cassiana@email.com</t>
+  </si>
+  <si>
+    <t>Rob@email.com</t>
+  </si>
+  <si>
+    <t>Helena@email.com</t>
+  </si>
+  <si>
+    <t>332.803.064-69</t>
+  </si>
+  <si>
+    <t>857.280.915-55</t>
+  </si>
+  <si>
+    <t>684.530.445-97</t>
+  </si>
+  <si>
+    <t>681.146.109-80</t>
+  </si>
+  <si>
+    <t>Permissao</t>
+  </si>
+  <si>
+    <t>NomePermissao</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>IdFormato</t>
+  </si>
+  <si>
+    <t>NomeFormato</t>
+  </si>
+  <si>
+    <t>Filme</t>
+  </si>
+  <si>
+    <t>Série</t>
+  </si>
+  <si>
+    <t>Lancamentos</t>
+  </si>
+  <si>
+    <t>IdLancamento</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Sinopse</t>
+  </si>
+  <si>
+    <t>Duracao</t>
+  </si>
+  <si>
+    <t>DataLancamento</t>
+  </si>
+  <si>
+    <t>Rei leão</t>
+  </si>
+  <si>
+    <t>Mufasa (voz de James Earl Jones), o Rei Leão, e a rainha Sarabi (voz de Madge Sinclair) apresentam ao reino o herdeiro do trono, Simba (voz de Matthew Broderick). O recém-nascido recebe a bênção do sábio babuíno Rafiki (voz de Robert Guillaume), mas ao crescer é envolvido nas artimanhas de seu tio Scar (voz de Jeremy Irons), o invejoso e maquiavélico irmão de Mufasa, que planeja livrar-se do sobrinho e herdar o trono</t>
+  </si>
+  <si>
+    <t>89min</t>
+  </si>
+  <si>
+    <t>VINGADORES: ULTIMATO</t>
+  </si>
+  <si>
+    <t>Após Thanos eliminar metade das criaturas vivas, os Vingadores precisam lidar com a dor da perda de amigos e seus entes queridos. Com Tony Stark (Robert Downey Jr.) vagando perdido no espaço sem água nem comida, Steve Rogers (Chris Evans) e Natasha Romanov (Scarlett Johansson) precisam liderar a resistência contra o titã louco.</t>
+  </si>
+  <si>
+    <t>181min</t>
+  </si>
+  <si>
+    <t>VINGADORES: GUERRA INFINITA</t>
+  </si>
+  <si>
+    <t>Thanos (Josh Brolin) enfim chega à Terra, disposto a reunir as Joias do Infinito. Para enfrentá-lo, os Vingadores precisam unir forças com os Guardiões da Galáxia, ao mesmo tempo em que lidam com desavenças entre alguns de seus integrantes.</t>
+  </si>
+  <si>
+    <t>156min</t>
+  </si>
+  <si>
+    <t>JOHN WICK: UM NOVO DIA PARA MATAR</t>
+  </si>
+  <si>
+    <t>Após recuperar seu carro, John Wick (Keanu Reeves) acredita que enfim poderá se aposentar. Entretanto, a reaparição de Santino D'Antonio (Riccardo Scarmacio) atrapalha seus planos. Dono de uma promissória em nome de Wick, por ele usada para deixar o posto de assassino profissional da Alta Cúpula, Santino cobra a dívida existente e insiste para que ele mate sua própria irmã, Gianna (Claudia Gerini).</t>
+  </si>
+  <si>
+    <t>122min</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Uma série animada que acompanha as aventuras e os descobrimentos de um super cientista e seu neto não muito brilhante.</t>
+  </si>
+  <si>
+    <t>22min</t>
+  </si>
+  <si>
+    <t>Máquina Mortífera</t>
+  </si>
+  <si>
+    <t>O cinquentenário Sargento Murtaugh (Damon Wayans, Sr.), da divisão de homicídios da polícia de Los Angeles, recebe um novo parceiro, o sargento Riggs (Clayne Crawford), da divisão de narcóticos da polícia do Texas, que começou a vida nas Forças Especiais do exército americano. Riggs é um jovem inconsequente, volátil e ligeiramente suicida que se mudou para Los Angeles para recomeçar a vida depois da morte de sua mulher e filho num acidente de carro, e não vai fazer bem ao coração frágil do quase aposentado Murtaugh.</t>
+  </si>
+  <si>
+    <t>42min</t>
+  </si>
+  <si>
+    <t>How I Met Your Mother</t>
+  </si>
+  <si>
+    <t>Em 2030, o arquiteto Ted Mosby (Josh Radnor) conta a história sobre como conheceu a mãe dos seus filhos. Ele volta no tempo para 2005, relembrando suas aventuras amorosas em Nova York e a busca pela mulher dos seus sonhos. Ao longo do anos, Ted aproveita para falar a jornada dos seus amigos: o advogado Marshall Eriksen (Jason Segel), a professora Lily Aldrin (Alyson Hannigan), a jornalista Robin Scherbatsky (Cobie Smulders) e o mulherengo convicto Barney Stinson (Neil Patrick Harris).</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,16 +234,105 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,14 +340,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - Ênfase2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Ênfase3" xfId="5" builtinId="38"/>
+    <cellStyle name="20% - Ênfase4" xfId="7" builtinId="42"/>
+    <cellStyle name="20% - Ênfase6" xfId="9" builtinId="50"/>
+    <cellStyle name="60% - Ênfase1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - Ênfase2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - Ênfase3" xfId="6" builtinId="40"/>
+    <cellStyle name="60% - Ênfase4" xfId="8" builtinId="44"/>
+    <cellStyle name="60% - Ênfase6" xfId="10" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,14 +737,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5871B3F-64CE-4B09-A738-566E34228DF6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6113659B-019E-4812-B22A-20AAEF90006E}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4">
+        <v>123456</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4">
+        <v>123456</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4">
+        <v>123456</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3110</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="D12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="9">
+        <v>34523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="9">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="9">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="D17" s="8">
+        <v>4</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="8">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="9">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="9">
+        <v>41610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="8">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="9">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="9">
+        <v>38614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D12:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{EAC2FF93-440E-43CB-B846-64C1CA34F71A}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{DA6EBF45-D166-4CCB-8468-59D84731A5B0}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{A38E9C1D-5B08-4E1E-AE50-0DD61D5A3B27}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{505964CD-ADA0-49EE-96C0-2B5E8B1C7349}"/>
+    <hyperlink ref="E18" r:id="rId5" display="http://www.adorocinema.com/series/serie-11561/" xr:uid="{2F76B264-5B17-4AE4-90D5-C9C0E7EDBE8E}"/>
+    <hyperlink ref="E19" r:id="rId6" display="http://www.adorocinema.com/series/serie-19817/" xr:uid="{88E8B230-824D-4EF1-A63A-A5F66D492806}"/>
+    <hyperlink ref="E20" r:id="rId7" display="http://www.adorocinema.com/series/serie-446/" xr:uid="{B4CB2030-2B0D-4934-9DD5-90C88BB87772}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/M_Diagrama_MuriloMilani_Físico.xlsx
+++ b/M_Diagrama_MuriloMilani_Físico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44688951876\Desktop\Segundo Termo\Murilo Milani\2s2019-sprint-1-bd-Opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89620488-880A-4658-80E5-C669E39A6568}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC85FD-97D7-42B2-9EA3-6DC76A9DCB0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{EE77DB30-BFC5-49A6-97B6-F91DEBFF54BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>OPFLIX</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Em 2030, o arquiteto Ted Mosby (Josh Radnor) conta a história sobre como conheceu a mãe dos seus filhos. Ele volta no tempo para 2005, relembrando suas aventuras amorosas em Nova York e a busca pela mulher dos seus sonhos. Ao longo do anos, Ted aproveita para falar a jornada dos seus amigos: o advogado Marshall Eriksen (Jason Segel), a professora Lily Aldrin (Alyson Hannigan), a jornalista Robin Scherbatsky (Cobie Smulders) e o mulherengo convicto Barney Stinson (Neil Patrick Harris).</t>
+  </si>
+  <si>
+    <t>Favoritos</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +331,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -356,7 +371,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -368,8 +383,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -383,6 +400,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,18 +431,26 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Ênfase2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Ênfase3" xfId="5" builtinId="38"/>
     <cellStyle name="20% - Ênfase4" xfId="7" builtinId="42"/>
+    <cellStyle name="20% - Ênfase5" xfId="11" builtinId="46"/>
     <cellStyle name="20% - Ênfase6" xfId="9" builtinId="50"/>
     <cellStyle name="60% - Ênfase1" xfId="2" builtinId="32"/>
     <cellStyle name="60% - Ênfase2" xfId="4" builtinId="36"/>
     <cellStyle name="60% - Ênfase3" xfId="6" builtinId="40"/>
     <cellStyle name="60% - Ênfase4" xfId="8" builtinId="44"/>
+    <cellStyle name="60% - Ênfase5" xfId="12" builtinId="48"/>
     <cellStyle name="60% - Ênfase6" xfId="10" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -740,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6113659B-019E-4812-B22A-20AAEF90006E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,19 +790,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -941,19 +967,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="17"/>
+      <c r="D12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1003,7 +1029,7 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1023,7 +1049,7 @@
       <c r="D15" s="8">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="8">
@@ -1032,7 +1058,7 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1046,7 +1072,7 @@
       <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="8">
@@ -1055,7 +1081,7 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="11" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -1066,14 +1092,14 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
       <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="8">
@@ -1082,7 +1108,7 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -1102,7 +1128,7 @@
       <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="8">
@@ -1111,7 +1137,7 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="11" t="s">
         <v>58</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -1131,7 +1157,7 @@
       <c r="D19" s="8">
         <v>6</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="22" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="8">
@@ -1140,10 +1166,10 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="11" t="s">
         <v>62</v>
       </c>
       <c r="J19" s="9">
@@ -1179,6 +1205,52 @@
         <v>38614</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>1</v>
+      </c>
+      <c r="B25" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>1</v>
+      </c>
+      <c r="B26" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>2</v>
+      </c>
+      <c r="B27" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>2</v>
+      </c>
+      <c r="B28" s="24">
+        <v>2</v>
+      </c>
+    </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
     </row>
@@ -1186,7 +1258,8 @@
       <c r="C33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="A12:B12"/>
@@ -1198,11 +1271,10 @@
     <hyperlink ref="F6" r:id="rId2" xr:uid="{DA6EBF45-D166-4CCB-8468-59D84731A5B0}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{A38E9C1D-5B08-4E1E-AE50-0DD61D5A3B27}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{505964CD-ADA0-49EE-96C0-2B5E8B1C7349}"/>
-    <hyperlink ref="E18" r:id="rId5" display="http://www.adorocinema.com/series/serie-11561/" xr:uid="{2F76B264-5B17-4AE4-90D5-C9C0E7EDBE8E}"/>
-    <hyperlink ref="E19" r:id="rId6" display="http://www.adorocinema.com/series/serie-19817/" xr:uid="{88E8B230-824D-4EF1-A63A-A5F66D492806}"/>
-    <hyperlink ref="E20" r:id="rId7" display="http://www.adorocinema.com/series/serie-446/" xr:uid="{B4CB2030-2B0D-4934-9DD5-90C88BB87772}"/>
+    <hyperlink ref="E19" r:id="rId5" display="http://www.adorocinema.com/series/serie-19817/" xr:uid="{88E8B230-824D-4EF1-A63A-A5F66D492806}"/>
+    <hyperlink ref="E20" r:id="rId6" display="http://www.adorocinema.com/series/serie-446/" xr:uid="{B4CB2030-2B0D-4934-9DD5-90C88BB87772}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/M_Diagrama_MuriloMilani_Físico.xlsx
+++ b/M_Diagrama_MuriloMilani_Físico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44688951876\Desktop\Segundo Termo\Murilo Milani\2s2019-sprint-1-bd-Opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCC85FD-97D7-42B2-9EA3-6DC76A9DCB0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87276D6-9A42-4D7B-B35E-F8182FB50F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{EE77DB30-BFC5-49A6-97B6-F91DEBFF54BB}"/>
   </bookViews>
@@ -229,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -371,7 +379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,8 +393,9 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,6 +410,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,15 +447,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Ênfase2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Ênfase3" xfId="5" builtinId="38"/>
@@ -452,6 +463,7 @@
     <cellStyle name="60% - Ênfase4" xfId="8" builtinId="44"/>
     <cellStyle name="60% - Ênfase5" xfId="12" builtinId="48"/>
     <cellStyle name="60% - Ênfase6" xfId="10" builtinId="52"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6113659B-019E-4812-B22A-20AAEF90006E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,19 +802,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -846,17 +858,17 @@
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="4">
         <v>123456</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="5">
         <v>43690</v>
@@ -881,11 +893,11 @@
       <c r="G6" s="4">
         <v>123456</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="25" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5">
         <v>43690</v>
@@ -914,7 +926,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
         <v>43690</v>
@@ -939,11 +951,11 @@
       <c r="G8" s="4">
         <v>3110</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="25" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
         <v>43690</v>
@@ -967,19 +979,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="20"/>
+      <c r="D12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1092,10 +1104,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="D17" s="8">
         <v>4</v>
       </c>
@@ -1157,7 +1169,7 @@
       <c r="D19" s="8">
         <v>6</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="8">
@@ -1195,7 +1207,7 @@
       <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="11" t="s">
         <v>64</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -1206,48 +1218,48 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="13">
+        <v>1</v>
+      </c>
+      <c r="B25" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>1</v>
-      </c>
-      <c r="B26" s="24">
+      <c r="A26" s="13">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="13">
         <v>2</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="13">
         <v>2</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="13">
         <v>2</v>
       </c>
     </row>

--- a/M_Diagrama_MuriloMilani_Físico.xlsx
+++ b/M_Diagrama_MuriloMilani_Físico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44688951876\Desktop\Segundo Termo\Murilo Milani\2s2019-sprint-1-bd-Opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87276D6-9A42-4D7B-B35E-F8182FB50F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47063684-357C-4188-9E76-84A200F8658D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{EE77DB30-BFC5-49A6-97B6-F91DEBFF54BB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>OPFLIX</t>
   </si>
@@ -223,13 +223,37 @@
   </si>
   <si>
     <t>Favoritos</t>
+  </si>
+  <si>
+    <t>Veiculos</t>
+  </si>
+  <si>
+    <t>IdVeiculo</t>
+  </si>
+  <si>
+    <t>NomeVeiculo</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>VHS</t>
+  </si>
+  <si>
+    <t>Transmissao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +263,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -274,8 +291,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +391,30 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -393,12 +456,11 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -414,41 +476,60 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="11" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
@@ -778,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6113659B-019E-4812-B22A-20AAEF90006E}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,494 +870,559 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>123456</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>43690</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>123456</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>43690</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>123456</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>43690</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>3110</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>43690</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="D12" s="23" t="s">
+      <c r="B12" s="21"/>
+      <c r="D12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>34523</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
         <v>0</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>43580</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>3</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>43216</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="D17" s="8">
+      <c r="B17" s="23"/>
+      <c r="D17" s="7">
         <v>4</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>42776</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>41610</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="s">
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>42634</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>2</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>3</v>
       </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>38614</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="D23" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="G23" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="D24" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="A25" s="12">
+        <v>1</v>
+      </c>
+      <c r="B25" s="12">
         <v>5</v>
       </c>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
+      <c r="H25" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12">
         <v>7</v>
       </c>
+      <c r="D26" s="27">
+        <v>2</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="28">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>2</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>3</v>
       </c>
+      <c r="D27" s="27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="28">
+        <v>2</v>
+      </c>
+      <c r="H27" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>2</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>2</v>
       </c>
+      <c r="D28" s="27">
+        <v>4</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{EAC2FF93-440E-43CB-B846-64C1CA34F71A}"/>
